--- a/List Kebutuhan.xlsx
+++ b/List Kebutuhan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D54C9A-0E26-49C4-B5CE-DDA379117447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74677D65-A64A-4A7C-A747-8B3CA308067D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Kebutuhan Bisnis</t>
   </si>
@@ -84,9 +84,6 @@
     <t>4. Pengguna dapat meminjam ruangan dan fasilitas yang disediakan  serta melakukan pembayaran</t>
   </si>
   <si>
-    <t>F 4.3 Sistem memungkinkan pengguna yang telah meminjam ruangan untuk melakukan pembayaran</t>
-  </si>
-  <si>
     <t>5. Pengguna dapat menghubungi admin</t>
   </si>
   <si>
@@ -100,6 +97,36 @@
   </si>
   <si>
     <t xml:space="preserve">Operasional,Keamanan </t>
+  </si>
+  <si>
+    <t>6. Melayani pemesanan ruangan</t>
+  </si>
+  <si>
+    <t>F 6.1 Menambah informasi ruangan</t>
+  </si>
+  <si>
+    <t>F 6.2 Melihat ketersediaan ruangan</t>
+  </si>
+  <si>
+    <t>F 6.3 Melihat data diri peminjam ruangan</t>
+  </si>
+  <si>
+    <t>7. Melakukan komunikasi dengan peminjam ruangan</t>
+  </si>
+  <si>
+    <t>F 7.1 Melakukan chat dengan peminjam ruangan</t>
+  </si>
+  <si>
+    <t>F 4.3 Sistem memungkinkan pengguna yang telah memesan ruangan untuk melakukan pembayaran</t>
+  </si>
+  <si>
+    <t>F 4.4 Sistem memungkinkan pengguna untuk memilih metode pembayaran yang diinginkan</t>
+  </si>
+  <si>
+    <t>Usability, Performance</t>
+  </si>
+  <si>
+    <t>Usability, real time</t>
   </si>
 </sst>
 </file>
@@ -223,17 +250,36 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -243,7 +289,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -253,67 +298,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,180 +667,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58" style="4" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B9:B11"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/List Kebutuhan.xlsx
+++ b/List Kebutuhan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsacid-my.sharepoint.com/personal/05111740000183_mahasiswa_integra_its_ac_id/Documents/Kuliah/RK/Elisitasi-Kebutuhan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F16B9-6541-4366-B8DC-ABB7769E6399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{74677D65-A64A-4A7C-A747-8B3CA308067D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBBBB845-685B-4BA6-9183-3EDE02EDC08C}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,24 +99,6 @@
     <t xml:space="preserve">Operasional,Keamanan </t>
   </si>
   <si>
-    <t>6. Melayani pemesanan ruangan</t>
-  </si>
-  <si>
-    <t>F 6.1 Menambah informasi ruangan</t>
-  </si>
-  <si>
-    <t>F 6.2 Melihat ketersediaan ruangan</t>
-  </si>
-  <si>
-    <t>F 6.3 Melihat data diri peminjam ruangan</t>
-  </si>
-  <si>
-    <t>7. Melakukan komunikasi dengan peminjam ruangan</t>
-  </si>
-  <si>
-    <t>F 7.1 Melakukan chat dengan peminjam ruangan</t>
-  </si>
-  <si>
     <t>F 4.4 Sistem memungkinkan pengguna untuk memilih metode pembayaran yang diinginkan</t>
   </si>
   <si>
@@ -124,6 +106,24 @@
   </si>
   <si>
     <t>Usability, real time</t>
+  </si>
+  <si>
+    <t>6. Admin melayani pemesanan ruangan</t>
+  </si>
+  <si>
+    <t>7. Admin dapat komunikasi dengan peminjam ruangan</t>
+  </si>
+  <si>
+    <t>F 6.2 Sistem memungkinkan Admin dapat melihat ketersediaan ruangan</t>
+  </si>
+  <si>
+    <t>F 6.3 Sistem memungkinkan Admin dapat melihat data diri peminjam ruangan</t>
+  </si>
+  <si>
+    <t>F 7.1 Sistem memungkinkan Admin dapat melakukan chat dengan peminjam ruangan</t>
+  </si>
+  <si>
+    <t>F 6.1 Sistem dapat memungkinkan Admin dapat menambah ruangan serta fasilitasnya</t>
   </si>
   <si>
     <t>F 4.3 Sistem memungkinkan pengguna yang telah memesan ruangan untuk melakukan booking pada transaksi reservasi</t>
@@ -669,15 +669,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -798,7 +798,7 @@
       <c r="A12" s="21"/>
       <c r="B12" s="19"/>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="24"/>
     </row>
@@ -814,23 +814,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="18"/>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="23"/>
     </row>
@@ -838,7 +838,7 @@
       <c r="A16" s="21"/>
       <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D16" s="24"/>
     </row>
@@ -848,10 +848,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/List Kebutuhan.xlsx
+++ b/List Kebutuhan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74677D65-A64A-4A7C-A747-8B3CA308067D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F16B9-6541-4366-B8DC-ABB7769E6399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>F 7.1 Melakukan chat dengan peminjam ruangan</t>
   </si>
   <si>
-    <t>F 4.3 Sistem memungkinkan pengguna yang telah memesan ruangan untuk melakukan pembayaran</t>
-  </si>
-  <si>
     <t>F 4.4 Sistem memungkinkan pengguna untuk memilih metode pembayaran yang diinginkan</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Usability, real time</t>
+  </si>
+  <si>
+    <t>F 4.3 Sistem memungkinkan pengguna yang telah memesan ruangan untuk melakukan booking pada transaksi reservasi</t>
   </si>
 </sst>
 </file>
@@ -280,36 +280,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -318,13 +288,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -683,23 +683,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -713,10 +713,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -727,84 +727,84 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -815,35 +815,35 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>33</v>
+      <c r="D14" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
@@ -851,7 +851,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,17 +862,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D9:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/List Kebutuhan.xlsx
+++ b/List Kebutuhan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsacid-my.sharepoint.com/personal/05111740000183_mahasiswa_integra_its_ac_id/Documents/Kuliah/RK/Elisitasi-Kebutuhan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434EE1BE-5319-4E5D-99CE-DD7597D3FBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{74677D65-A64A-4A7C-A747-8B3CA308067D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85788159-986D-4318-B139-1A51F286FEE7}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,24 +99,6 @@
     <t xml:space="preserve">Operasional,Keamanan </t>
   </si>
   <si>
-    <t>6. Melayani pemesanan ruangan</t>
-  </si>
-  <si>
-    <t>F 6.1 Menambah informasi ruangan</t>
-  </si>
-  <si>
-    <t>F 6.2 Melihat ketersediaan ruangan</t>
-  </si>
-  <si>
-    <t>F 6.3 Melihat data diri peminjam ruangan</t>
-  </si>
-  <si>
-    <t>7. Melakukan komunikasi dengan peminjam ruangan</t>
-  </si>
-  <si>
-    <t>F 7.1 Melakukan chat dengan peminjam ruangan</t>
-  </si>
-  <si>
     <t>F 4.4 Sistem memungkinkan pengguna untuk memilih metode pembayaran yang diinginkan</t>
   </si>
   <si>
@@ -126,7 +108,25 @@
     <t>Usability, real time</t>
   </si>
   <si>
-    <t>F 4.3 Sistem memungkinkan pengguna yang telah memesan ruangan untuk melakukan booking pada transaksi peminjaman ruangan</t>
+    <t>6. Admin melayani pemesanan ruangan</t>
+  </si>
+  <si>
+    <t>7. Admin dapat komunikasi dengan peminjam ruangan</t>
+  </si>
+  <si>
+    <t>F 6.3 Sistem memungkinkan Admin dapat melihat data diri peminjam ruangan</t>
+  </si>
+  <si>
+    <t>F 7.1 Sistem memungkinkan Admin dapat melakukan chat dengan peminjam ruangan</t>
+  </si>
+  <si>
+    <t>F 6.1 Sistem dapat memungkinkan Admin dapat menambah ruangan serta fasilitasnya</t>
+  </si>
+  <si>
+    <t>F 4.3 Sistem memungkinkan pengguna yang telah memesan ruangan untuk melakukan booking pada transaksi reservasi</t>
+  </si>
+  <si>
+    <t>F 6.2 Sistem memungkinkan Admin dapat melihat dan mengubah ketersediaan ruangan.</t>
   </si>
 </sst>
 </file>
@@ -669,15 +669,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -790,7 +790,7 @@
       <c r="A11" s="14"/>
       <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="16"/>
     </row>
@@ -798,7 +798,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -814,23 +814,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D15" s="16"/>
     </row>
@@ -838,7 +838,7 @@
       <c r="A16" s="14"/>
       <c r="B16" s="13"/>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="17"/>
     </row>
@@ -848,10 +848,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/List Kebutuhan.xlsx
+++ b/List Kebutuhan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsacid-my.sharepoint.com/personal/05111740000183_mahasiswa_integra_its_ac_id/Documents/Kuliah/RK/Elisitasi-Kebutuhan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{74677D65-A64A-4A7C-A747-8B3CA308067D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBBBB845-685B-4BA6-9183-3EDE02EDC08C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434EE1BE-5319-4E5D-99CE-DD7597D3FBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,24 @@
     <t xml:space="preserve">Operasional,Keamanan </t>
   </si>
   <si>
+    <t>6. Melayani pemesanan ruangan</t>
+  </si>
+  <si>
+    <t>F 6.1 Menambah informasi ruangan</t>
+  </si>
+  <si>
+    <t>F 6.2 Melihat ketersediaan ruangan</t>
+  </si>
+  <si>
+    <t>F 6.3 Melihat data diri peminjam ruangan</t>
+  </si>
+  <si>
+    <t>7. Melakukan komunikasi dengan peminjam ruangan</t>
+  </si>
+  <si>
+    <t>F 7.1 Melakukan chat dengan peminjam ruangan</t>
+  </si>
+  <si>
     <t>F 4.4 Sistem memungkinkan pengguna untuk memilih metode pembayaran yang diinginkan</t>
   </si>
   <si>
@@ -108,25 +126,7 @@
     <t>Usability, real time</t>
   </si>
   <si>
-    <t>6. Admin melayani pemesanan ruangan</t>
-  </si>
-  <si>
-    <t>7. Admin dapat komunikasi dengan peminjam ruangan</t>
-  </si>
-  <si>
-    <t>F 6.2 Sistem memungkinkan Admin dapat melihat ketersediaan ruangan</t>
-  </si>
-  <si>
-    <t>F 6.3 Sistem memungkinkan Admin dapat melihat data diri peminjam ruangan</t>
-  </si>
-  <si>
-    <t>F 7.1 Sistem memungkinkan Admin dapat melakukan chat dengan peminjam ruangan</t>
-  </si>
-  <si>
-    <t>F 6.1 Sistem dapat memungkinkan Admin dapat menambah ruangan serta fasilitasnya</t>
-  </si>
-  <si>
-    <t>F 4.3 Sistem memungkinkan pengguna yang telah memesan ruangan untuk melakukan booking pada transaksi reservasi</t>
+    <t>F 4.3 Sistem memungkinkan pengguna yang telah memesan ruangan untuk melakukan booking pada transaksi peminjaman ruangan</t>
   </si>
 </sst>
 </file>
@@ -290,6 +290,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,25 +326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,34 +669,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -713,7 +713,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -727,83 +727,83 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
@@ -814,44 +814,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,17 +862,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D9:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
